--- a/Tabela_Fipe_Atualizada.xlsx
+++ b/Tabela_Fipe_Atualizada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moltt\Documents\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CBC91E-929A-4B71-90A7-2193B22A16B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CDD1CC-72A0-4B22-8987-421DB6787513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="985">
   <si>
     <t>CONTRATO</t>
   </si>
@@ -2972,6 +2972,9 @@
   </si>
   <si>
     <t xml:space="preserve">Variavel não existia no codigo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consertado </t>
   </si>
 </sst>
 </file>
@@ -3438,8 +3441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D211" sqref="D211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9289,6 +9292,11 @@
       <c r="E205" s="2" t="s">
         <v>979</v>
       </c>
+      <c r="F205" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E206" s="3" t="s">
@@ -9299,23 +9307,33 @@
       <c r="E207" s="5" t="s">
         <v>978</v>
       </c>
+      <c r="F207" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E208" s="6" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E209" s="7" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E210" s="8" t="s">
+    <row r="210" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E210" s="10" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F210" s="10" t="s">
+        <v>984</v>
+      </c>
+      <c r="G210" s="10"/>
+      <c r="H210" s="10"/>
+    </row>
+    <row r="211" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E211" s="9" t="s">
         <v>983</v>
       </c>

--- a/Tabela_Fipe_Atualizada.xlsx
+++ b/Tabela_Fipe_Atualizada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moltt\Documents\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CDD1CC-72A0-4B22-8987-421DB6787513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD478EA-9892-41C9-B63D-BABB64B75834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="987">
   <si>
     <t>CONTRATO</t>
   </si>
@@ -2975,13 +2975,19 @@
   </si>
   <si>
     <t xml:space="preserve">Consertado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">consertado </t>
+  </si>
+  <si>
+    <t>1998/1998 Diesel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2993,6 +2999,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3087,7 +3100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3101,6 +3114,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3441,8 +3455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D211" sqref="D211"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4080,7 +4094,7 @@
         <v>443</v>
       </c>
       <c r="F22" t="s">
-        <v>601</v>
+        <v>986</v>
       </c>
       <c r="G22" t="s">
         <v>633</v>
@@ -9287,6 +9301,11 @@
       <c r="E204" s="4" t="s">
         <v>977</v>
       </c>
+      <c r="F204" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="G204" s="4"/>
+      <c r="H204" s="4"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E205" s="2" t="s">
@@ -9302,6 +9321,11 @@
       <c r="E206" s="3" t="s">
         <v>976</v>
       </c>
+      <c r="F206" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E207" s="5" t="s">
@@ -9317,11 +9341,21 @@
       <c r="E208" s="6" t="s">
         <v>980</v>
       </c>
+      <c r="F208" s="11" t="s">
+        <v>985</v>
+      </c>
+      <c r="G208" s="11"/>
+      <c r="H208" s="11"/>
     </row>
     <row r="209" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E209" s="7" t="s">
         <v>981</v>
       </c>
+      <c r="F209" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="G209" s="7"/>
+      <c r="H209" s="7"/>
     </row>
     <row r="210" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E210" s="10" t="s">
@@ -9337,6 +9371,11 @@
       <c r="E211" s="9" t="s">
         <v>983</v>
       </c>
+      <c r="F211" s="9" t="s">
+        <v>984</v>
+      </c>
+      <c r="G211" s="9"/>
+      <c r="H211" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
